--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit3-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit3-Robo1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.252684333333333</v>
+        <v>1.168788</v>
       </c>
       <c r="H2">
-        <v>6.758053</v>
+        <v>3.506364</v>
       </c>
       <c r="I2">
-        <v>0.0222218921225531</v>
+        <v>0.0139255825297802</v>
       </c>
       <c r="J2">
-        <v>0.02372332054363385</v>
+        <v>0.01408364098536324</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N2">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O2">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P2">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q2">
-        <v>0.3241312397755555</v>
+        <v>0.198289559352</v>
       </c>
       <c r="R2">
-        <v>2.91718115798</v>
+        <v>1.784606034168</v>
       </c>
       <c r="S2">
-        <v>0.0001228446287661927</v>
+        <v>8.486618274700214E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001379955183412914</v>
+        <v>9.203210931867721E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.252684333333333</v>
+        <v>1.168788</v>
       </c>
       <c r="H3">
-        <v>6.758053</v>
+        <v>3.506364</v>
       </c>
       <c r="I3">
-        <v>0.0222218921225531</v>
+        <v>0.0139255825297802</v>
       </c>
       <c r="J3">
-        <v>0.02372332054363385</v>
+        <v>0.01408364098536324</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>65.97693</v>
       </c>
       <c r="O3">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P3">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q3">
-        <v>49.54173219081</v>
+        <v>25.70434802028</v>
       </c>
       <c r="R3">
-        <v>445.87558971729</v>
+        <v>231.33913218252</v>
       </c>
       <c r="S3">
-        <v>0.01877614667326851</v>
+        <v>0.01100123427380859</v>
       </c>
       <c r="T3">
-        <v>0.0210918793817289</v>
+        <v>0.01193015595323563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.252684333333333</v>
+        <v>1.168788</v>
       </c>
       <c r="H4">
-        <v>6.758053</v>
+        <v>3.506364</v>
       </c>
       <c r="I4">
-        <v>0.0222218921225531</v>
+        <v>0.0139255825297802</v>
       </c>
       <c r="J4">
-        <v>0.02372332054363385</v>
+        <v>0.01408364098536324</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N4">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O4">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P4">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q4">
-        <v>0.034959408169</v>
+        <v>0.055748460428</v>
       </c>
       <c r="R4">
-        <v>0.314634673521</v>
+        <v>0.501736143852</v>
       </c>
       <c r="S4">
-        <v>1.324949585661779E-05</v>
+        <v>2.385984943437187E-05</v>
       </c>
       <c r="T4">
-        <v>1.488360595703911E-05</v>
+        <v>2.587452622934026E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.252684333333333</v>
+        <v>1.168788</v>
       </c>
       <c r="H5">
-        <v>6.758053</v>
+        <v>3.506364</v>
       </c>
       <c r="I5">
-        <v>0.0222218921225531</v>
+        <v>0.0139255825297802</v>
       </c>
       <c r="J5">
-        <v>0.02372332054363385</v>
+        <v>0.01408364098536324</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N5">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O5">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P5">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q5">
-        <v>8.732668231910999</v>
+        <v>6.578692147866</v>
       </c>
       <c r="R5">
-        <v>52.396009391466</v>
+        <v>39.472152887196</v>
       </c>
       <c r="S5">
-        <v>0.003309651324661777</v>
+        <v>0.002815622223790235</v>
       </c>
       <c r="T5">
-        <v>0.002478562037606611</v>
+        <v>0.002035578396579592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>239.321053</v>
       </c>
       <c r="I6">
-        <v>0.7869376908440661</v>
+        <v>0.9504675141158767</v>
       </c>
       <c r="J6">
-        <v>0.8401073583114818</v>
+        <v>0.9612555315680539</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N6">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O6">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P6">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q6">
-        <v>11.47836952644222</v>
+        <v>13.53392464188733</v>
       </c>
       <c r="R6">
-        <v>103.30532573798</v>
+        <v>121.805321776986</v>
       </c>
       <c r="S6">
-        <v>0.004350262703136442</v>
+        <v>0.00579240039513952</v>
       </c>
       <c r="T6">
-        <v>0.004886796945617128</v>
+        <v>0.006281498815284706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>239.321053</v>
       </c>
       <c r="I7">
-        <v>0.7869376908440661</v>
+        <v>0.9504675141158767</v>
       </c>
       <c r="J7">
-        <v>0.8401073583114818</v>
+        <v>0.9612555315680539</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>65.97693</v>
       </c>
       <c r="O7">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P7">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q7">
         <v>1754.40759570081</v>
@@ -886,10 +886,10 @@
         <v>15789.66836130729</v>
       </c>
       <c r="S7">
-        <v>0.6649144647325298</v>
+        <v>0.7508709793699577</v>
       </c>
       <c r="T7">
-        <v>0.7469208636547168</v>
+        <v>0.8142729862565808</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>239.321053</v>
       </c>
       <c r="I8">
-        <v>0.7869376908440661</v>
+        <v>0.9504675141158767</v>
       </c>
       <c r="J8">
-        <v>0.8401073583114818</v>
+        <v>0.9612555315680539</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N8">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O8">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P8">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q8">
-        <v>1.238007807169</v>
+        <v>3.805018604103222</v>
       </c>
       <c r="R8">
-        <v>11.142070264521</v>
+        <v>34.245167436929</v>
       </c>
       <c r="S8">
-        <v>0.0004692007150765031</v>
+        <v>0.001628514407247887</v>
       </c>
       <c r="T8">
-        <v>0.0005270690019855827</v>
+        <v>0.001766022826803444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>239.321053</v>
       </c>
       <c r="I9">
-        <v>0.7869376908440661</v>
+        <v>0.9504675141158767</v>
       </c>
       <c r="J9">
-        <v>0.8401073583114818</v>
+        <v>0.9612555315680539</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N9">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O9">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P9">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q9">
-        <v>309.247553512911</v>
+        <v>449.0177095675529</v>
       </c>
       <c r="R9">
-        <v>1855.485321077466</v>
+        <v>2694.106257405317</v>
       </c>
       <c r="S9">
-        <v>0.1172037626933233</v>
+        <v>0.1921756199435315</v>
       </c>
       <c r="T9">
-        <v>0.08777262870916219</v>
+        <v>0.138935023669385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08885966666666667</v>
+        <v>0.09388066666666665</v>
       </c>
       <c r="H10">
-        <v>0.266579</v>
+        <v>0.2816419999999999</v>
       </c>
       <c r="I10">
-        <v>0.0008765675232405078</v>
+        <v>0.001118545854010694</v>
       </c>
       <c r="J10">
-        <v>0.0009357930556628316</v>
+        <v>0.001131241597962925</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N10">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O10">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P10">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q10">
-        <v>0.01278572123777778</v>
+        <v>0.01592723062266667</v>
       </c>
       <c r="R10">
-        <v>0.11507149114</v>
+        <v>0.143345075604</v>
       </c>
       <c r="S10">
-        <v>4.845744520183979E-06</v>
+        <v>6.816714249071452E-06</v>
       </c>
       <c r="T10">
-        <v>5.443388396614101E-06</v>
+        <v>7.392303632118879E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08885966666666667</v>
+        <v>0.09388066666666665</v>
       </c>
       <c r="H11">
-        <v>0.266579</v>
+        <v>0.2816419999999999</v>
       </c>
       <c r="I11">
-        <v>0.0008765675232405078</v>
+        <v>0.001118545854010694</v>
       </c>
       <c r="J11">
-        <v>0.0009357930556628316</v>
+        <v>0.001131241597962925</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>65.97693</v>
       </c>
       <c r="O11">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P11">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q11">
-        <v>1.95422933583</v>
+        <v>2.06465272434</v>
       </c>
       <c r="R11">
-        <v>17.58806402247</v>
+        <v>18.58187451905999</v>
       </c>
       <c r="S11">
-        <v>0.0007406462192606726</v>
+        <v>0.0008836531584695709</v>
       </c>
       <c r="T11">
-        <v>0.0008319928999819783</v>
+        <v>0.0009582670204751101</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08885966666666667</v>
+        <v>0.09388066666666665</v>
       </c>
       <c r="H12">
-        <v>0.266579</v>
+        <v>0.2816419999999999</v>
       </c>
       <c r="I12">
-        <v>0.0008765675232405078</v>
+        <v>0.001118545854010694</v>
       </c>
       <c r="J12">
-        <v>0.0009357930556628316</v>
+        <v>0.001131241597962925</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N12">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O12">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P12">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q12">
-        <v>0.001379013167</v>
+        <v>0.00447788874511111</v>
       </c>
       <c r="R12">
-        <v>0.012411118503</v>
+        <v>0.04030099870599999</v>
       </c>
       <c r="S12">
-        <v>5.22641263091798E-07</v>
+        <v>1.916496893760991E-06</v>
       </c>
       <c r="T12">
-        <v>5.871005735559531E-07</v>
+        <v>2.078321964372166E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08885966666666667</v>
+        <v>0.09388066666666665</v>
       </c>
       <c r="H13">
-        <v>0.266579</v>
+        <v>0.2816419999999999</v>
       </c>
       <c r="I13">
-        <v>0.0008765675232405078</v>
+        <v>0.001118545854010694</v>
       </c>
       <c r="J13">
-        <v>0.0009357930556628316</v>
+        <v>0.001131241597962925</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N13">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O13">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P13">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q13">
-        <v>0.344469918273</v>
+        <v>0.5284208980896666</v>
       </c>
       <c r="R13">
-        <v>2.066819509638</v>
+        <v>3.170525388538</v>
       </c>
       <c r="S13">
-        <v>0.0001305529181965593</v>
+        <v>0.000226159484398291</v>
       </c>
       <c r="T13">
-        <v>9.776966671068319E-05</v>
+        <v>0.0001635039518913237</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.2472955</v>
+        <v>2.8258325</v>
       </c>
       <c r="H14">
-        <v>38.494591</v>
+        <v>5.651664999999999</v>
       </c>
       <c r="I14">
-        <v>0.1898674030457745</v>
+        <v>0.03366852131788238</v>
       </c>
       <c r="J14">
-        <v>0.1351305651922355</v>
+        <v>0.0227004443433548</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N14">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O14">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P14">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q14">
-        <v>2.769429191843333</v>
+        <v>0.479413786955</v>
       </c>
       <c r="R14">
-        <v>16.61657515106</v>
+        <v>2.87648272173</v>
       </c>
       <c r="S14">
-        <v>0.001049604170217685</v>
+        <v>0.0002051848730115452</v>
       </c>
       <c r="T14">
-        <v>0.0007860371971603374</v>
+        <v>0.0001483401754959102</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.2472955</v>
+        <v>2.8258325</v>
       </c>
       <c r="H15">
-        <v>38.494591</v>
+        <v>5.651664999999999</v>
       </c>
       <c r="I15">
-        <v>0.1898674030457745</v>
+        <v>0.03366852131788238</v>
       </c>
       <c r="J15">
-        <v>0.1351305651922355</v>
+        <v>0.0227004443433548</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>65.97693</v>
       </c>
       <c r="O15">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P15">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q15">
-        <v>423.292489297605</v>
+        <v>62.146584348075</v>
       </c>
       <c r="R15">
-        <v>2539.75493578563</v>
+        <v>372.8795060884499</v>
       </c>
       <c r="S15">
-        <v>0.1604264024143082</v>
+        <v>0.02659819004904415</v>
       </c>
       <c r="T15">
-        <v>0.1201415955484497</v>
+        <v>0.01922939114291712</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.2472955</v>
+        <v>2.8258325</v>
       </c>
       <c r="H16">
-        <v>38.494591</v>
+        <v>5.651664999999999</v>
       </c>
       <c r="I16">
-        <v>0.1898674030457745</v>
+        <v>0.03366852131788238</v>
       </c>
       <c r="J16">
-        <v>0.1351305651922355</v>
+        <v>0.0227004443433548</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N16">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O16">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P16">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q16">
-        <v>0.2986987788645</v>
+        <v>0.1347856166408333</v>
       </c>
       <c r="R16">
-        <v>1.792192673187</v>
+        <v>0.808713699845</v>
       </c>
       <c r="S16">
-        <v>0.0001132058132623471</v>
+        <v>5.768705528868765E-05</v>
       </c>
       <c r="T16">
-        <v>8.477860767315441E-05</v>
+        <v>4.170535468706167E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.2472955</v>
+        <v>2.8258325</v>
       </c>
       <c r="H17">
-        <v>38.494591</v>
+        <v>5.651664999999999</v>
       </c>
       <c r="I17">
-        <v>0.1898674030457745</v>
+        <v>0.03366852131788238</v>
       </c>
       <c r="J17">
-        <v>0.1351305651922355</v>
+        <v>0.0227004443433548</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N17">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O17">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P17">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q17">
-        <v>74.61331509077549</v>
+        <v>15.90560655904625</v>
       </c>
       <c r="R17">
-        <v>298.4532603631019</v>
+        <v>63.62242623618499</v>
       </c>
       <c r="S17">
-        <v>0.02827819064798619</v>
+        <v>0.006807459340537992</v>
       </c>
       <c r="T17">
-        <v>0.0141181538389523</v>
+        <v>0.003281007670254714</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.009776999999999999</v>
+        <v>0.06880966666666666</v>
       </c>
       <c r="H18">
-        <v>0.029331</v>
+        <v>0.206429</v>
       </c>
       <c r="I18">
-        <v>9.644646436578774E-05</v>
+        <v>0.0008198361824499672</v>
       </c>
       <c r="J18">
-        <v>0.0001029628969860586</v>
+        <v>0.0008291415052651543</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N18">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O18">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P18">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q18">
-        <v>0.00140677994</v>
+        <v>0.01167383518866666</v>
       </c>
       <c r="R18">
-        <v>0.01266101946</v>
+        <v>0.105064516698</v>
       </c>
       <c r="S18">
-        <v>5.331647748754263E-07</v>
+        <v>4.996298512727402E-06</v>
       </c>
       <c r="T18">
-        <v>5.989219895831562E-07</v>
+        <v>5.418175721215828E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.009776999999999999</v>
+        <v>0.06880966666666666</v>
       </c>
       <c r="H19">
-        <v>0.029331</v>
+        <v>0.206429</v>
       </c>
       <c r="I19">
-        <v>9.644646436578774E-05</v>
+        <v>0.0008198361824499672</v>
       </c>
       <c r="J19">
-        <v>0.0001029628969860586</v>
+        <v>0.0008291415052651543</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>65.97693</v>
       </c>
       <c r="O19">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P19">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q19">
-        <v>0.21501881487</v>
+        <v>1.51328352033</v>
       </c>
       <c r="R19">
-        <v>1.93516933383</v>
+        <v>13.61955168297</v>
       </c>
       <c r="S19">
-        <v>8.149139375995404E-05</v>
+        <v>0.0006476720015115468</v>
       </c>
       <c r="T19">
-        <v>9.15420335036571E-05</v>
+        <v>0.0007023600981730583</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.009776999999999999</v>
+        <v>0.06880966666666666</v>
       </c>
       <c r="H20">
-        <v>0.029331</v>
+        <v>0.206429</v>
       </c>
       <c r="I20">
-        <v>9.644646436578774E-05</v>
+        <v>0.0008198361824499672</v>
       </c>
       <c r="J20">
-        <v>0.0001029628969860586</v>
+        <v>0.0008291415052651543</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N20">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O20">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P20">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q20">
-        <v>0.000151729263</v>
+        <v>0.003282060544111111</v>
       </c>
       <c r="R20">
-        <v>0.001365563367</v>
+        <v>0.029538544897</v>
       </c>
       <c r="S20">
-        <v>5.750487055524076E-08</v>
+        <v>1.404692969380233E-06</v>
       </c>
       <c r="T20">
-        <v>6.459716227823519E-08</v>
+        <v>1.523302365355245E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.009776999999999999</v>
+        <v>0.06880966666666666</v>
       </c>
       <c r="H21">
-        <v>0.029331</v>
+        <v>0.206429</v>
       </c>
       <c r="I21">
-        <v>9.644646436578774E-05</v>
+        <v>0.0008198361824499672</v>
       </c>
       <c r="J21">
-        <v>0.0001029628969860586</v>
+        <v>0.0008291415052651543</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N21">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O21">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P21">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q21">
-        <v>0.037901136897</v>
+        <v>0.3873051518301666</v>
       </c>
       <c r="R21">
-        <v>0.227406821382</v>
+        <v>2.323830910981</v>
       </c>
       <c r="S21">
-        <v>1.436440096040303E-05</v>
+        <v>0.0001657631894563127</v>
       </c>
       <c r="T21">
-        <v>1.07573443305401E-05</v>
+        <v>0.000119839929005525</v>
       </c>
     </row>
   </sheetData>
